--- a/Documents/dashboard dummy data.xlsx
+++ b/Documents/dashboard dummy data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dulajupananda/Documents/Projects/Multi-Dimensional-Course-Performance-Analytics-Dashboard/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220F0A23-574E-5145-82DA-B9076F0E6844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -250,8 +256,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,13 +320,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -358,7 +372,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -392,6 +406,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -426,9 +441,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -601,14 +617,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I651"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="6" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,7 +662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>15</v>
       </c>
@@ -666,7 +691,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>22</v>
       </c>
@@ -695,7 +720,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>43</v>
       </c>
@@ -724,7 +749,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>34</v>
       </c>
@@ -753,7 +778,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>26</v>
       </c>
@@ -782,7 +807,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>29</v>
       </c>
@@ -811,7 +836,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -840,7 +865,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>18</v>
       </c>
@@ -869,7 +894,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>11</v>
       </c>
@@ -898,7 +923,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>32</v>
       </c>
@@ -927,7 +952,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>31</v>
       </c>
@@ -956,7 +981,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>17</v>
       </c>
@@ -985,7 +1010,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>41</v>
       </c>
@@ -1014,7 +1039,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>28</v>
       </c>
@@ -1043,7 +1068,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>21</v>
       </c>
@@ -1072,7 +1097,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>50</v>
       </c>
@@ -1101,7 +1126,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>21</v>
       </c>
@@ -1130,7 +1155,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>41</v>
       </c>
@@ -1159,7 +1184,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>43</v>
       </c>
@@ -1188,7 +1213,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9</v>
       </c>
@@ -1217,7 +1242,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -1246,7 +1271,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1275,7 +1300,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>32</v>
       </c>
@@ -1304,7 +1329,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1333,7 +1358,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>46</v>
       </c>
@@ -1362,7 +1387,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>13</v>
       </c>
@@ -1391,7 +1416,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>10</v>
       </c>
@@ -1420,7 +1445,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>11</v>
       </c>
@@ -1449,7 +1474,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>35</v>
       </c>
@@ -1478,7 +1503,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>9</v>
       </c>
@@ -1507,7 +1532,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>50</v>
       </c>
@@ -1536,7 +1561,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1565,7 +1590,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>36</v>
       </c>
@@ -1594,7 +1619,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>49</v>
       </c>
@@ -1623,7 +1648,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1652,7 +1677,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>42</v>
       </c>
@@ -1681,7 +1706,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>13</v>
       </c>
@@ -1710,7 +1735,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>11</v>
       </c>
@@ -1739,7 +1764,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>46</v>
       </c>
@@ -1768,7 +1793,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>37</v>
       </c>
@@ -1797,7 +1822,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>7</v>
       </c>
@@ -1826,7 +1851,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>17</v>
       </c>
@@ -1855,7 +1880,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>31</v>
       </c>
@@ -1884,7 +1909,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>13</v>
       </c>
@@ -1913,7 +1938,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>21</v>
       </c>
@@ -1942,7 +1967,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>40</v>
       </c>
@@ -1971,7 +1996,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>25</v>
       </c>
@@ -2000,7 +2025,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>14</v>
       </c>
@@ -2029,7 +2054,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>38</v>
       </c>
@@ -2058,7 +2083,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>35</v>
       </c>
@@ -2087,7 +2112,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>4</v>
       </c>
@@ -2116,7 +2141,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>18</v>
       </c>
@@ -2145,7 +2170,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>15</v>
       </c>
@@ -2174,7 +2199,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>38</v>
       </c>
@@ -2203,7 +2228,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>21</v>
       </c>
@@ -2232,7 +2257,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>30</v>
       </c>
@@ -2261,7 +2286,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>23</v>
       </c>
@@ -2290,7 +2315,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>39</v>
       </c>
@@ -2319,7 +2344,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>12</v>
       </c>
@@ -2348,7 +2373,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>25</v>
       </c>
@@ -2377,7 +2402,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>41</v>
       </c>
@@ -2406,7 +2431,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>44</v>
       </c>
@@ -2435,7 +2460,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>46</v>
       </c>
@@ -2464,7 +2489,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>49</v>
       </c>
@@ -2493,7 +2518,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>44</v>
       </c>
@@ -2522,7 +2547,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2</v>
       </c>
@@ -2551,7 +2576,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>4</v>
       </c>
@@ -2580,7 +2605,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>41</v>
       </c>
@@ -2609,7 +2634,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>41</v>
       </c>
@@ -2638,7 +2663,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>45</v>
       </c>
@@ -2667,7 +2692,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>36</v>
       </c>
@@ -2696,7 +2721,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>29</v>
       </c>
@@ -2725,7 +2750,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>35</v>
       </c>
@@ -2754,7 +2779,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>39</v>
       </c>
@@ -2783,7 +2808,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>38</v>
       </c>
@@ -2812,7 +2837,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>12</v>
       </c>
@@ -2841,7 +2866,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>15</v>
       </c>
@@ -2870,7 +2895,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>46</v>
       </c>
@@ -2899,7 +2924,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>7</v>
       </c>
@@ -2928,7 +2953,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>13</v>
       </c>
@@ -2957,7 +2982,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>15</v>
       </c>
@@ -2986,7 +3011,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>43</v>
       </c>
@@ -3015,7 +3040,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>48</v>
       </c>
@@ -3044,7 +3069,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2</v>
       </c>
@@ -3073,7 +3098,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>44</v>
       </c>
@@ -3102,7 +3127,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>34</v>
       </c>
@@ -3131,7 +3156,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1</v>
       </c>
@@ -3160,7 +3185,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>47</v>
       </c>
@@ -3189,7 +3214,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>31</v>
       </c>
@@ -3218,7 +3243,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>18</v>
       </c>
@@ -3247,7 +3272,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>49</v>
       </c>
@@ -3276,7 +3301,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>5</v>
       </c>
@@ -3305,7 +3330,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>47</v>
       </c>
@@ -3334,7 +3359,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>45</v>
       </c>
@@ -3363,7 +3388,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2</v>
       </c>
@@ -3392,7 +3417,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>27</v>
       </c>
@@ -3421,7 +3446,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>10</v>
       </c>
@@ -3450,7 +3475,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>22</v>
       </c>
@@ -3479,7 +3504,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>13</v>
       </c>
@@ -3508,7 +3533,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>20</v>
       </c>
@@ -3537,7 +3562,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>6</v>
       </c>
@@ -3566,7 +3591,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>43</v>
       </c>
@@ -3595,7 +3620,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>16</v>
       </c>
@@ -3624,7 +3649,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>27</v>
       </c>
@@ -3653,7 +3678,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>3</v>
       </c>
@@ -3682,7 +3707,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>30</v>
       </c>
@@ -3711,7 +3736,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>21</v>
       </c>
@@ -3740,7 +3765,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>39</v>
       </c>
@@ -3769,7 +3794,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>31</v>
       </c>
@@ -3798,7 +3823,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>10</v>
       </c>
@@ -3827,7 +3852,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>18</v>
       </c>
@@ -3856,7 +3881,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>38</v>
       </c>
@@ -3885,7 +3910,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>26</v>
       </c>
@@ -3914,7 +3939,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>26</v>
       </c>
@@ -3943,7 +3968,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>34</v>
       </c>
@@ -3972,7 +3997,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>40</v>
       </c>
@@ -4001,7 +4026,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>21</v>
       </c>
@@ -4030,7 +4055,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>49</v>
       </c>
@@ -4059,7 +4084,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>29</v>
       </c>
@@ -4088,7 +4113,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>34</v>
       </c>
@@ -4117,7 +4142,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>23</v>
       </c>
@@ -4146,7 +4171,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>33</v>
       </c>
@@ -4175,7 +4200,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>15</v>
       </c>
@@ -4204,7 +4229,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>33</v>
       </c>
@@ -4233,7 +4258,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>14</v>
       </c>
@@ -4262,7 +4287,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>48</v>
       </c>
@@ -4291,7 +4316,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>46</v>
       </c>
@@ -4320,7 +4345,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>4</v>
       </c>
@@ -4349,7 +4374,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>3</v>
       </c>
@@ -4378,7 +4403,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>11</v>
       </c>
@@ -4407,7 +4432,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>40</v>
       </c>
@@ -4436,7 +4461,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>36</v>
       </c>
@@ -4465,7 +4490,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>34</v>
       </c>
@@ -4494,7 +4519,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>42</v>
       </c>
@@ -4523,7 +4548,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2</v>
       </c>
@@ -4552,7 +4577,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>24</v>
       </c>
@@ -4581,7 +4606,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>29</v>
       </c>
@@ -4610,7 +4635,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>4</v>
       </c>
@@ -4639,7 +4664,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>21</v>
       </c>
@@ -4668,7 +4693,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>48</v>
       </c>
@@ -4697,7 +4722,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>3</v>
       </c>
@@ -4726,7 +4751,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>8</v>
       </c>
@@ -4755,7 +4780,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>46</v>
       </c>
@@ -4784,7 +4809,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>11</v>
       </c>
@@ -4813,7 +4838,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>41</v>
       </c>
@@ -4842,7 +4867,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>4</v>
       </c>
@@ -4871,7 +4896,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>7</v>
       </c>
@@ -4900,7 +4925,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>34</v>
       </c>
@@ -4929,7 +4954,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>49</v>
       </c>
@@ -4958,7 +4983,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>29</v>
       </c>
@@ -4987,7 +5012,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>29</v>
       </c>
@@ -5016,7 +5041,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>48</v>
       </c>
@@ -5045,7 +5070,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>3</v>
       </c>
@@ -5074,7 +5099,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>39</v>
       </c>
@@ -5103,7 +5128,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>12</v>
       </c>
@@ -5132,7 +5157,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>26</v>
       </c>
@@ -5161,7 +5186,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>34</v>
       </c>
@@ -5190,7 +5215,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>21</v>
       </c>
@@ -5219,7 +5244,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>3</v>
       </c>
@@ -5248,7 +5273,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>33</v>
       </c>
@@ -5277,7 +5302,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>3</v>
       </c>
@@ -5306,7 +5331,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>44</v>
       </c>
@@ -5335,7 +5360,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>50</v>
       </c>
@@ -5364,7 +5389,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>6</v>
       </c>
@@ -5393,7 +5418,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>49</v>
       </c>
@@ -5422,7 +5447,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>41</v>
       </c>
@@ -5451,7 +5476,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>38</v>
       </c>
@@ -5480,7 +5505,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>27</v>
       </c>
@@ -5509,7 +5534,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>5</v>
       </c>
@@ -5538,7 +5563,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>12</v>
       </c>
@@ -5567,7 +5592,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>36</v>
       </c>
@@ -5596,7 +5621,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>15</v>
       </c>
@@ -5625,7 +5650,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>3</v>
       </c>
@@ -5654,7 +5679,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>42</v>
       </c>
@@ -5683,7 +5708,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>18</v>
       </c>
@@ -5712,7 +5737,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>11</v>
       </c>
@@ -5741,7 +5766,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2</v>
       </c>
@@ -5770,7 +5795,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>20</v>
       </c>
@@ -5799,7 +5824,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>29</v>
       </c>
@@ -5828,7 +5853,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>5</v>
       </c>
@@ -5857,7 +5882,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>43</v>
       </c>
@@ -5886,7 +5911,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>34</v>
       </c>
@@ -5915,7 +5940,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>19</v>
       </c>
@@ -5944,7 +5969,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>21</v>
       </c>
@@ -5973,7 +5998,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>25</v>
       </c>
@@ -6002,7 +6027,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>7</v>
       </c>
@@ -6031,7 +6056,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>24</v>
       </c>
@@ -6060,7 +6085,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>35</v>
       </c>
@@ -6089,7 +6114,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>39</v>
       </c>
@@ -6118,7 +6143,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>3</v>
       </c>
@@ -6147,7 +6172,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>13</v>
       </c>
@@ -6176,7 +6201,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>44</v>
       </c>
@@ -6205,7 +6230,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>7</v>
       </c>
@@ -6234,7 +6259,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>11</v>
       </c>
@@ -6263,7 +6288,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>8</v>
       </c>
@@ -6292,7 +6317,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>32</v>
       </c>
@@ -6321,7 +6346,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>29</v>
       </c>
@@ -6350,7 +6375,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>3</v>
       </c>
@@ -6379,7 +6404,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>23</v>
       </c>
@@ -6408,7 +6433,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>24</v>
       </c>
@@ -6437,7 +6462,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>23</v>
       </c>
@@ -6466,7 +6491,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>23</v>
       </c>
@@ -6495,7 +6520,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>50</v>
       </c>
@@ -6524,7 +6549,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>46</v>
       </c>
@@ -6553,7 +6578,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>50</v>
       </c>
@@ -6582,7 +6607,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>18</v>
       </c>
@@ -6611,7 +6636,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>37</v>
       </c>
@@ -6640,7 +6665,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>43</v>
       </c>
@@ -6669,7 +6694,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>16</v>
       </c>
@@ -6698,7 +6723,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>36</v>
       </c>
@@ -6727,7 +6752,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>45</v>
       </c>
@@ -6756,7 +6781,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>28</v>
       </c>
@@ -6785,7 +6810,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>40</v>
       </c>
@@ -6814,7 +6839,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>37</v>
       </c>
@@ -6843,7 +6868,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>8</v>
       </c>
@@ -6872,7 +6897,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>22</v>
       </c>
@@ -6901,7 +6926,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>13</v>
       </c>
@@ -6930,7 +6955,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>21</v>
       </c>
@@ -6959,7 +6984,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>22</v>
       </c>
@@ -6988,7 +7013,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>27</v>
       </c>
@@ -7017,7 +7042,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>20</v>
       </c>
@@ -7046,7 +7071,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>40</v>
       </c>
@@ -7075,7 +7100,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>40</v>
       </c>
@@ -7104,7 +7129,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>16</v>
       </c>
@@ -7133,7 +7158,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>3</v>
       </c>
@@ -7162,7 +7187,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>43</v>
       </c>
@@ -7191,7 +7216,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>20</v>
       </c>
@@ -7220,7 +7245,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>42</v>
       </c>
@@ -7249,7 +7274,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>33</v>
       </c>
@@ -7278,7 +7303,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>20</v>
       </c>
@@ -7307,7 +7332,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>42</v>
       </c>
@@ -7336,7 +7361,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>39</v>
       </c>
@@ -7365,7 +7390,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>38</v>
       </c>
@@ -7394,7 +7419,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>44</v>
       </c>
@@ -7423,7 +7448,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>37</v>
       </c>
@@ -7452,7 +7477,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>24</v>
       </c>
@@ -7481,7 +7506,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>41</v>
       </c>
@@ -7510,7 +7535,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>13</v>
       </c>
@@ -7539,7 +7564,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>4</v>
       </c>
@@ -7568,7 +7593,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>16</v>
       </c>
@@ -7597,7 +7622,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>12</v>
       </c>
@@ -7626,7 +7651,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>2</v>
       </c>
@@ -7655,7 +7680,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>7</v>
       </c>
@@ -7684,7 +7709,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>16</v>
       </c>
@@ -7713,7 +7738,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>23</v>
       </c>
@@ -7742,7 +7767,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>42</v>
       </c>
@@ -7771,7 +7796,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>47</v>
       </c>
@@ -7800,7 +7825,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>17</v>
       </c>
@@ -7829,7 +7854,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>26</v>
       </c>
@@ -7858,7 +7883,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>28</v>
       </c>
@@ -7887,7 +7912,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>44</v>
       </c>
@@ -7916,7 +7941,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>34</v>
       </c>
@@ -7945,7 +7970,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>48</v>
       </c>
@@ -7974,7 +7999,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>9</v>
       </c>
@@ -8003,7 +8028,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>8</v>
       </c>
@@ -8032,7 +8057,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>3</v>
       </c>
@@ -8061,7 +8086,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>7</v>
       </c>
@@ -8090,7 +8115,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>9</v>
       </c>
@@ -8119,7 +8144,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>37</v>
       </c>
@@ -8148,7 +8173,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>33</v>
       </c>
@@ -8177,7 +8202,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>34</v>
       </c>
@@ -8206,7 +8231,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>12</v>
       </c>
@@ -8235,7 +8260,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>24</v>
       </c>
@@ -8264,7 +8289,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>8</v>
       </c>
@@ -8293,7 +8318,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>20</v>
       </c>
@@ -8322,7 +8347,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>19</v>
       </c>
@@ -8351,7 +8376,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>42</v>
       </c>
@@ -8380,7 +8405,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>11</v>
       </c>
@@ -8409,7 +8434,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>25</v>
       </c>
@@ -8438,7 +8463,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>1</v>
       </c>
@@ -8467,7 +8492,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>2</v>
       </c>
@@ -8496,7 +8521,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>9</v>
       </c>
@@ -8525,7 +8550,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>29</v>
       </c>
@@ -8554,7 +8579,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>48</v>
       </c>
@@ -8583,7 +8608,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>18</v>
       </c>
@@ -8612,7 +8637,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>39</v>
       </c>
@@ -8641,7 +8666,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>7</v>
       </c>
@@ -8670,7 +8695,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>1</v>
       </c>
@@ -8699,7 +8724,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>30</v>
       </c>
@@ -8728,7 +8753,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>40</v>
       </c>
@@ -8757,7 +8782,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>41</v>
       </c>
@@ -8786,7 +8811,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>27</v>
       </c>
@@ -8815,7 +8840,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>25</v>
       </c>
@@ -8844,7 +8869,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>38</v>
       </c>
@@ -8873,7 +8898,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>22</v>
       </c>
@@ -8902,7 +8927,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>37</v>
       </c>
@@ -8931,7 +8956,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>50</v>
       </c>
@@ -8960,7 +8985,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>22</v>
       </c>
@@ -8989,7 +9014,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>14</v>
       </c>
@@ -9018,7 +9043,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>39</v>
       </c>
@@ -9047,7 +9072,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>33</v>
       </c>
@@ -9076,7 +9101,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>42</v>
       </c>
@@ -9105,7 +9130,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>44</v>
       </c>
@@ -9134,7 +9159,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>19</v>
       </c>
@@ -9163,7 +9188,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>27</v>
       </c>
@@ -9192,7 +9217,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>43</v>
       </c>
@@ -9221,7 +9246,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>20</v>
       </c>
@@ -9250,7 +9275,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>22</v>
       </c>
@@ -9279,7 +9304,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>43</v>
       </c>
@@ -9308,7 +9333,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>5</v>
       </c>
@@ -9337,7 +9362,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>13</v>
       </c>
@@ -9366,7 +9391,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>8</v>
       </c>
@@ -9395,7 +9420,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>48</v>
       </c>
@@ -9424,7 +9449,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>45</v>
       </c>
@@ -9453,7 +9478,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>11</v>
       </c>
@@ -9482,7 +9507,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>14</v>
       </c>
@@ -9511,7 +9536,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>18</v>
       </c>
@@ -9540,7 +9565,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>39</v>
       </c>
@@ -9569,7 +9594,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>20</v>
       </c>
@@ -9598,7 +9623,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>36</v>
       </c>
@@ -9627,7 +9652,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>28</v>
       </c>
@@ -9656,7 +9681,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>27</v>
       </c>
@@ -9685,7 +9710,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>38</v>
       </c>
@@ -9714,7 +9739,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>42</v>
       </c>
@@ -9743,7 +9768,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>21</v>
       </c>
@@ -9772,7 +9797,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>4</v>
       </c>
@@ -9801,7 +9826,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>4</v>
       </c>
@@ -9830,7 +9855,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>21</v>
       </c>
@@ -9859,7 +9884,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>34</v>
       </c>
@@ -9888,7 +9913,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>14</v>
       </c>
@@ -9917,7 +9942,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>38</v>
       </c>
@@ -9946,7 +9971,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>39</v>
       </c>
@@ -9975,7 +10000,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>23</v>
       </c>
@@ -10004,7 +10029,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>30</v>
       </c>
@@ -10033,7 +10058,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>46</v>
       </c>
@@ -10062,7 +10087,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>39</v>
       </c>
@@ -10091,7 +10116,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>19</v>
       </c>
@@ -10120,7 +10145,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>6</v>
       </c>
@@ -10149,7 +10174,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>32</v>
       </c>
@@ -10178,7 +10203,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>47</v>
       </c>
@@ -10207,7 +10232,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>4</v>
       </c>
@@ -10236,7 +10261,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>14</v>
       </c>
@@ -10265,7 +10290,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>13</v>
       </c>
@@ -10294,7 +10319,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>3</v>
       </c>
@@ -10323,7 +10348,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>36</v>
       </c>
@@ -10352,7 +10377,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>44</v>
       </c>
@@ -10381,7 +10406,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>45</v>
       </c>
@@ -10410,7 +10435,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>35</v>
       </c>
@@ -10439,7 +10464,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>41</v>
       </c>
@@ -10468,7 +10493,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>43</v>
       </c>
@@ -10497,7 +10522,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>27</v>
       </c>
@@ -10526,7 +10551,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>49</v>
       </c>
@@ -10555,7 +10580,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>46</v>
       </c>
@@ -10584,7 +10609,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>15</v>
       </c>
@@ -10613,7 +10638,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>14</v>
       </c>
@@ -10642,7 +10667,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>1</v>
       </c>
@@ -10671,7 +10696,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>35</v>
       </c>
@@ -10700,7 +10725,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="349" spans="1:9">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>43</v>
       </c>
@@ -10729,7 +10754,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>14</v>
       </c>
@@ -10758,7 +10783,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="351" spans="1:9">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>8</v>
       </c>
@@ -10787,7 +10812,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="352" spans="1:9">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>32</v>
       </c>
@@ -10816,7 +10841,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="353" spans="1:9">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>23</v>
       </c>
@@ -10845,7 +10870,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>26</v>
       </c>
@@ -10874,7 +10899,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>21</v>
       </c>
@@ -10903,7 +10928,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="356" spans="1:9">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>26</v>
       </c>
@@ -10932,7 +10957,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>37</v>
       </c>
@@ -10961,7 +10986,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>38</v>
       </c>
@@ -10990,7 +11015,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="359" spans="1:9">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>48</v>
       </c>
@@ -11019,7 +11044,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="360" spans="1:9">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>33</v>
       </c>
@@ -11048,7 +11073,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="361" spans="1:9">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>17</v>
       </c>
@@ -11077,7 +11102,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="362" spans="1:9">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>26</v>
       </c>
@@ -11106,7 +11131,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>14</v>
       </c>
@@ -11135,7 +11160,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="364" spans="1:9">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>14</v>
       </c>
@@ -11164,7 +11189,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="365" spans="1:9">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>36</v>
       </c>
@@ -11193,7 +11218,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="366" spans="1:9">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>35</v>
       </c>
@@ -11222,7 +11247,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="367" spans="1:9">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>25</v>
       </c>
@@ -11251,7 +11276,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>47</v>
       </c>
@@ -11280,7 +11305,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>25</v>
       </c>
@@ -11309,7 +11334,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>37</v>
       </c>
@@ -11338,7 +11363,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="371" spans="1:9">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>50</v>
       </c>
@@ -11367,7 +11392,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>25</v>
       </c>
@@ -11396,7 +11421,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>2</v>
       </c>
@@ -11425,7 +11450,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="374" spans="1:9">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>3</v>
       </c>
@@ -11454,7 +11479,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>7</v>
       </c>
@@ -11483,7 +11508,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="376" spans="1:9">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>21</v>
       </c>
@@ -11512,7 +11537,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>24</v>
       </c>
@@ -11541,7 +11566,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="378" spans="1:9">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>10</v>
       </c>
@@ -11570,7 +11595,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>17</v>
       </c>
@@ -11599,7 +11624,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>36</v>
       </c>
@@ -11628,7 +11653,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="381" spans="1:9">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>13</v>
       </c>
@@ -11657,7 +11682,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="382" spans="1:9">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>23</v>
       </c>
@@ -11686,7 +11711,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="383" spans="1:9">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>10</v>
       </c>
@@ -11715,7 +11740,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="384" spans="1:9">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>3</v>
       </c>
@@ -11744,7 +11769,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="385" spans="1:9">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>2</v>
       </c>
@@ -11773,7 +11798,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="386" spans="1:9">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>23</v>
       </c>
@@ -11802,7 +11827,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="387" spans="1:9">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>27</v>
       </c>
@@ -11831,7 +11856,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="388" spans="1:9">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>27</v>
       </c>
@@ -11860,7 +11885,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="389" spans="1:9">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>35</v>
       </c>
@@ -11889,7 +11914,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="390" spans="1:9">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>6</v>
       </c>
@@ -11918,7 +11943,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="391" spans="1:9">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>43</v>
       </c>
@@ -11947,7 +11972,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="392" spans="1:9">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>15</v>
       </c>
@@ -11976,7 +12001,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="393" spans="1:9">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>10</v>
       </c>
@@ -12005,7 +12030,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="394" spans="1:9">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>44</v>
       </c>
@@ -12034,7 +12059,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="395" spans="1:9">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>2</v>
       </c>
@@ -12063,7 +12088,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="396" spans="1:9">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>41</v>
       </c>
@@ -12092,7 +12117,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="397" spans="1:9">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>45</v>
       </c>
@@ -12121,7 +12146,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="398" spans="1:9">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>3</v>
       </c>
@@ -12150,7 +12175,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="399" spans="1:9">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>27</v>
       </c>
@@ -12179,7 +12204,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="400" spans="1:9">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>39</v>
       </c>
@@ -12208,7 +12233,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="401" spans="1:9">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>13</v>
       </c>
@@ -12237,7 +12262,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="402" spans="1:9">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>25</v>
       </c>
@@ -12266,7 +12291,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="403" spans="1:9">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>10</v>
       </c>
@@ -12295,7 +12320,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="404" spans="1:9">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>20</v>
       </c>
@@ -12324,7 +12349,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>26</v>
       </c>
@@ -12353,7 +12378,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="406" spans="1:9">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>5</v>
       </c>
@@ -12382,7 +12407,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>40</v>
       </c>
@@ -12411,7 +12436,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="408" spans="1:9">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>30</v>
       </c>
@@ -12440,7 +12465,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="409" spans="1:9">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>19</v>
       </c>
@@ -12469,7 +12494,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="410" spans="1:9">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>44</v>
       </c>
@@ -12498,7 +12523,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="411" spans="1:9">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>24</v>
       </c>
@@ -12527,7 +12552,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="412" spans="1:9">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>44</v>
       </c>
@@ -12556,7 +12581,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="413" spans="1:9">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>21</v>
       </c>
@@ -12585,7 +12610,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="414" spans="1:9">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>4</v>
       </c>
@@ -12614,7 +12639,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="415" spans="1:9">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>24</v>
       </c>
@@ -12643,7 +12668,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="416" spans="1:9">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>17</v>
       </c>
@@ -12672,7 +12697,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="417" spans="1:9">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>25</v>
       </c>
@@ -12701,7 +12726,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="418" spans="1:9">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>30</v>
       </c>
@@ -12730,7 +12755,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="419" spans="1:9">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>20</v>
       </c>
@@ -12759,7 +12784,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="420" spans="1:9">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>47</v>
       </c>
@@ -12788,7 +12813,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="421" spans="1:9">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>45</v>
       </c>
@@ -12817,7 +12842,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="422" spans="1:9">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>17</v>
       </c>
@@ -12846,7 +12871,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="423" spans="1:9">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>38</v>
       </c>
@@ -12875,7 +12900,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="424" spans="1:9">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>12</v>
       </c>
@@ -12904,7 +12929,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="425" spans="1:9">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>48</v>
       </c>
@@ -12933,7 +12958,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="426" spans="1:9">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>36</v>
       </c>
@@ -12962,7 +12987,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="427" spans="1:9">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>35</v>
       </c>
@@ -12991,7 +13016,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="428" spans="1:9">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>21</v>
       </c>
@@ -13020,7 +13045,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="429" spans="1:9">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>46</v>
       </c>
@@ -13049,7 +13074,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="430" spans="1:9">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>23</v>
       </c>
@@ -13078,7 +13103,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="431" spans="1:9">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>23</v>
       </c>
@@ -13107,7 +13132,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="432" spans="1:9">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>15</v>
       </c>
@@ -13136,7 +13161,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="433" spans="1:9">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>26</v>
       </c>
@@ -13165,7 +13190,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="434" spans="1:9">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>38</v>
       </c>
@@ -13194,7 +13219,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="435" spans="1:9">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>21</v>
       </c>
@@ -13223,7 +13248,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="436" spans="1:9">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>23</v>
       </c>
@@ -13252,7 +13277,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="437" spans="1:9">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>26</v>
       </c>
@@ -13281,7 +13306,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="438" spans="1:9">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>10</v>
       </c>
@@ -13310,7 +13335,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="439" spans="1:9">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>25</v>
       </c>
@@ -13339,7 +13364,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="440" spans="1:9">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>19</v>
       </c>
@@ -13368,7 +13393,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="441" spans="1:9">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>24</v>
       </c>
@@ -13397,7 +13422,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="442" spans="1:9">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>31</v>
       </c>
@@ -13426,7 +13451,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="443" spans="1:9">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>34</v>
       </c>
@@ -13455,7 +13480,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="444" spans="1:9">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>12</v>
       </c>
@@ -13484,7 +13509,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="445" spans="1:9">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>13</v>
       </c>
@@ -13513,7 +13538,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="446" spans="1:9">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>7</v>
       </c>
@@ -13542,7 +13567,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="447" spans="1:9">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>47</v>
       </c>
@@ -13571,7 +13596,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="448" spans="1:9">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>28</v>
       </c>
@@ -13600,7 +13625,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="449" spans="1:9">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>18</v>
       </c>
@@ -13629,7 +13654,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="450" spans="1:9">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>26</v>
       </c>
@@ -13658,7 +13683,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="451" spans="1:9">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>1</v>
       </c>
@@ -13687,7 +13712,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="452" spans="1:9">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>9</v>
       </c>
@@ -13716,7 +13741,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="453" spans="1:9">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>25</v>
       </c>
@@ -13745,7 +13770,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="454" spans="1:9">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>49</v>
       </c>
@@ -13774,7 +13799,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="455" spans="1:9">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>39</v>
       </c>
@@ -13803,7 +13828,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="456" spans="1:9">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>20</v>
       </c>
@@ -13832,7 +13857,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="457" spans="1:9">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>26</v>
       </c>
@@ -13861,7 +13886,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="458" spans="1:9">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>43</v>
       </c>
@@ -13890,7 +13915,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="459" spans="1:9">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>1</v>
       </c>
@@ -13919,7 +13944,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="460" spans="1:9">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>5</v>
       </c>
@@ -13948,7 +13973,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="461" spans="1:9">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>2</v>
       </c>
@@ -13977,7 +14002,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="462" spans="1:9">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>28</v>
       </c>
@@ -14006,7 +14031,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="463" spans="1:9">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>7</v>
       </c>
@@ -14035,7 +14060,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="464" spans="1:9">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>21</v>
       </c>
@@ -14064,7 +14089,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="465" spans="1:9">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>26</v>
       </c>
@@ -14093,7 +14118,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="466" spans="1:9">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>31</v>
       </c>
@@ -14122,7 +14147,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="467" spans="1:9">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>44</v>
       </c>
@@ -14151,7 +14176,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="468" spans="1:9">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>43</v>
       </c>
@@ -14180,7 +14205,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="469" spans="1:9">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>32</v>
       </c>
@@ -14209,7 +14234,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="470" spans="1:9">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>22</v>
       </c>
@@ -14238,7 +14263,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="471" spans="1:9">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>22</v>
       </c>
@@ -14267,7 +14292,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="472" spans="1:9">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>34</v>
       </c>
@@ -14296,7 +14321,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="473" spans="1:9">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>26</v>
       </c>
@@ -14325,7 +14350,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="474" spans="1:9">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>42</v>
       </c>
@@ -14354,7 +14379,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="475" spans="1:9">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>46</v>
       </c>
@@ -14383,7 +14408,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="476" spans="1:9">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>36</v>
       </c>
@@ -14412,7 +14437,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="477" spans="1:9">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>46</v>
       </c>
@@ -14441,7 +14466,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="478" spans="1:9">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>29</v>
       </c>
@@ -14470,7 +14495,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="479" spans="1:9">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>26</v>
       </c>
@@ -14499,7 +14524,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="480" spans="1:9">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>10</v>
       </c>
@@ -14528,7 +14553,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="481" spans="1:9">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>37</v>
       </c>
@@ -14557,7 +14582,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="482" spans="1:9">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>9</v>
       </c>
@@ -14586,7 +14611,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="483" spans="1:9">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>40</v>
       </c>
@@ -14615,7 +14640,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="484" spans="1:9">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>32</v>
       </c>
@@ -14644,7 +14669,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="485" spans="1:9">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>17</v>
       </c>
@@ -14673,7 +14698,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="486" spans="1:9">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>18</v>
       </c>
@@ -14702,7 +14727,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="487" spans="1:9">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>18</v>
       </c>
@@ -14731,7 +14756,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="488" spans="1:9">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>13</v>
       </c>
@@ -14760,7 +14785,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="489" spans="1:9">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>26</v>
       </c>
@@ -14789,7 +14814,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="490" spans="1:9">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>18</v>
       </c>
@@ -14818,7 +14843,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="491" spans="1:9">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>33</v>
       </c>
@@ -14847,7 +14872,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="492" spans="1:9">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>27</v>
       </c>
@@ -14876,7 +14901,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="493" spans="1:9">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>13</v>
       </c>
@@ -14905,7 +14930,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="494" spans="1:9">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>29</v>
       </c>
@@ -14934,7 +14959,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="495" spans="1:9">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>37</v>
       </c>
@@ -14963,7 +14988,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="496" spans="1:9">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>17</v>
       </c>
@@ -14992,7 +15017,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="497" spans="1:9">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>50</v>
       </c>
@@ -15021,7 +15046,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="498" spans="1:9">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>24</v>
       </c>
@@ -15050,7 +15075,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="499" spans="1:9">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>38</v>
       </c>
@@ -15079,7 +15104,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="500" spans="1:9">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>12</v>
       </c>
@@ -15108,7 +15133,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="501" spans="1:9">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>30</v>
       </c>
@@ -15137,7 +15162,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="502" spans="1:9">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>19</v>
       </c>
@@ -15166,7 +15191,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="503" spans="1:9">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>13</v>
       </c>
@@ -15195,7 +15220,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="504" spans="1:9">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>29</v>
       </c>
@@ -15224,7 +15249,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="505" spans="1:9">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>28</v>
       </c>
@@ -15253,7 +15278,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="506" spans="1:9">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>29</v>
       </c>
@@ -15282,7 +15307,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="507" spans="1:9">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>47</v>
       </c>
@@ -15311,7 +15336,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="508" spans="1:9">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>45</v>
       </c>
@@ -15340,7 +15365,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="509" spans="1:9">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>44</v>
       </c>
@@ -15369,7 +15394,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="510" spans="1:9">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>38</v>
       </c>
@@ -15398,7 +15423,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="511" spans="1:9">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>15</v>
       </c>
@@ -15427,7 +15452,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="512" spans="1:9">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>48</v>
       </c>
@@ -15456,7 +15481,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="513" spans="1:9">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>43</v>
       </c>
@@ -15485,7 +15510,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="514" spans="1:9">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>39</v>
       </c>
@@ -15514,7 +15539,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="515" spans="1:9">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>26</v>
       </c>
@@ -15543,7 +15568,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="516" spans="1:9">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>17</v>
       </c>
@@ -15572,7 +15597,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="517" spans="1:9">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>34</v>
       </c>
@@ -15601,7 +15626,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="518" spans="1:9">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>7</v>
       </c>
@@ -15630,7 +15655,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="519" spans="1:9">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>37</v>
       </c>
@@ -15659,7 +15684,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="520" spans="1:9">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>45</v>
       </c>
@@ -15688,7 +15713,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="521" spans="1:9">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>11</v>
       </c>
@@ -15717,7 +15742,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="522" spans="1:9">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>13</v>
       </c>
@@ -15746,7 +15771,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="523" spans="1:9">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>43</v>
       </c>
@@ -15775,7 +15800,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="524" spans="1:9">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>50</v>
       </c>
@@ -15804,7 +15829,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="525" spans="1:9">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>45</v>
       </c>
@@ -15833,7 +15858,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="526" spans="1:9">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>32</v>
       </c>
@@ -15862,7 +15887,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="527" spans="1:9">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>43</v>
       </c>
@@ -15891,7 +15916,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="528" spans="1:9">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>42</v>
       </c>
@@ -15920,7 +15945,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="529" spans="1:9">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>50</v>
       </c>
@@ -15949,7 +15974,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="530" spans="1:9">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>4</v>
       </c>
@@ -15978,7 +16003,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="531" spans="1:9">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>16</v>
       </c>
@@ -16007,7 +16032,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="532" spans="1:9">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>12</v>
       </c>
@@ -16036,7 +16061,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="533" spans="1:9">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>46</v>
       </c>
@@ -16065,7 +16090,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="534" spans="1:9">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>28</v>
       </c>
@@ -16094,7 +16119,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="535" spans="1:9">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>40</v>
       </c>
@@ -16123,7 +16148,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="536" spans="1:9">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>9</v>
       </c>
@@ -16152,7 +16177,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="537" spans="1:9">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>4</v>
       </c>
@@ -16181,7 +16206,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="538" spans="1:9">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>22</v>
       </c>
@@ -16210,7 +16235,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="539" spans="1:9">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>20</v>
       </c>
@@ -16239,7 +16264,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="540" spans="1:9">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>28</v>
       </c>
@@ -16268,7 +16293,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="541" spans="1:9">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>28</v>
       </c>
@@ -16297,7 +16322,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="542" spans="1:9">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>38</v>
       </c>
@@ -16326,7 +16351,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="543" spans="1:9">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>5</v>
       </c>
@@ -16355,7 +16380,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="544" spans="1:9">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>38</v>
       </c>
@@ -16384,7 +16409,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="545" spans="1:9">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>17</v>
       </c>
@@ -16413,7 +16438,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="546" spans="1:9">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>43</v>
       </c>
@@ -16442,7 +16467,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="547" spans="1:9">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>31</v>
       </c>
@@ -16471,7 +16496,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="548" spans="1:9">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>31</v>
       </c>
@@ -16500,7 +16525,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="549" spans="1:9">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>48</v>
       </c>
@@ -16529,7 +16554,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="550" spans="1:9">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>7</v>
       </c>
@@ -16558,7 +16583,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="551" spans="1:9">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>24</v>
       </c>
@@ -16587,7 +16612,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="552" spans="1:9">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>50</v>
       </c>
@@ -16616,7 +16641,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="553" spans="1:9">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>29</v>
       </c>
@@ -16645,7 +16670,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="554" spans="1:9">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>19</v>
       </c>
@@ -16674,7 +16699,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="555" spans="1:9">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>25</v>
       </c>
@@ -16703,7 +16728,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="556" spans="1:9">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>8</v>
       </c>
@@ -16732,7 +16757,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="557" spans="1:9">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>2</v>
       </c>
@@ -16761,7 +16786,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="558" spans="1:9">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>13</v>
       </c>
@@ -16790,7 +16815,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="559" spans="1:9">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>23</v>
       </c>
@@ -16819,7 +16844,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="560" spans="1:9">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>2</v>
       </c>
@@ -16848,7 +16873,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="561" spans="1:9">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>39</v>
       </c>
@@ -16877,7 +16902,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="562" spans="1:9">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>27</v>
       </c>
@@ -16906,7 +16931,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="563" spans="1:9">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>19</v>
       </c>
@@ -16935,7 +16960,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="564" spans="1:9">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>39</v>
       </c>
@@ -16964,7 +16989,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="565" spans="1:9">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>39</v>
       </c>
@@ -16993,7 +17018,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="566" spans="1:9">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>11</v>
       </c>
@@ -17022,7 +17047,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="567" spans="1:9">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>31</v>
       </c>
@@ -17051,7 +17076,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="568" spans="1:9">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>46</v>
       </c>
@@ -17080,7 +17105,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="569" spans="1:9">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>34</v>
       </c>
@@ -17109,7 +17134,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="570" spans="1:9">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>44</v>
       </c>
@@ -17138,7 +17163,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="571" spans="1:9">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>47</v>
       </c>
@@ -17167,7 +17192,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="572" spans="1:9">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>18</v>
       </c>
@@ -17196,7 +17221,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="573" spans="1:9">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>11</v>
       </c>
@@ -17225,7 +17250,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="574" spans="1:9">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>8</v>
       </c>
@@ -17254,7 +17279,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="575" spans="1:9">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>22</v>
       </c>
@@ -17283,7 +17308,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="576" spans="1:9">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>49</v>
       </c>
@@ -17312,7 +17337,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="577" spans="1:9">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>38</v>
       </c>
@@ -17341,7 +17366,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="578" spans="1:9">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>15</v>
       </c>
@@ -17370,7 +17395,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="579" spans="1:9">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>7</v>
       </c>
@@ -17399,7 +17424,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="580" spans="1:9">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>43</v>
       </c>
@@ -17428,7 +17453,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="581" spans="1:9">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>37</v>
       </c>
@@ -17457,7 +17482,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="582" spans="1:9">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>48</v>
       </c>
@@ -17486,7 +17511,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="583" spans="1:9">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>50</v>
       </c>
@@ -17515,7 +17540,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="584" spans="1:9">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>49</v>
       </c>
@@ -17544,7 +17569,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="585" spans="1:9">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>22</v>
       </c>
@@ -17573,7 +17598,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="586" spans="1:9">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>50</v>
       </c>
@@ -17602,7 +17627,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="587" spans="1:9">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>3</v>
       </c>
@@ -17631,7 +17656,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="588" spans="1:9">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>47</v>
       </c>
@@ -17660,7 +17685,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="589" spans="1:9">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>49</v>
       </c>
@@ -17689,7 +17714,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="590" spans="1:9">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>35</v>
       </c>
@@ -17718,7 +17743,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="591" spans="1:9">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>40</v>
       </c>
@@ -17747,7 +17772,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="592" spans="1:9">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>22</v>
       </c>
@@ -17776,7 +17801,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="593" spans="1:9">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>29</v>
       </c>
@@ -17805,7 +17830,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="594" spans="1:9">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>43</v>
       </c>
@@ -17834,7 +17859,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="595" spans="1:9">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>44</v>
       </c>
@@ -17863,7 +17888,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="596" spans="1:9">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>48</v>
       </c>
@@ -17892,7 +17917,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="597" spans="1:9">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>16</v>
       </c>
@@ -17921,7 +17946,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="598" spans="1:9">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>27</v>
       </c>
@@ -17950,7 +17975,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="599" spans="1:9">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>12</v>
       </c>
@@ -17979,7 +18004,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="600" spans="1:9">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>26</v>
       </c>
@@ -18008,7 +18033,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="601" spans="1:9">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>24</v>
       </c>
@@ -18037,7 +18062,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="602" spans="1:9">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>25</v>
       </c>
@@ -18066,7 +18091,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="603" spans="1:9">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>25</v>
       </c>
@@ -18095,7 +18120,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="604" spans="1:9">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>40</v>
       </c>
@@ -18124,7 +18149,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="605" spans="1:9">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>2</v>
       </c>
@@ -18153,7 +18178,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="606" spans="1:9">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>9</v>
       </c>
@@ -18182,7 +18207,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="607" spans="1:9">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>8</v>
       </c>
@@ -18211,7 +18236,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="608" spans="1:9">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>49</v>
       </c>
@@ -18240,7 +18265,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="609" spans="1:9">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>41</v>
       </c>
@@ -18269,7 +18294,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="610" spans="1:9">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>48</v>
       </c>
@@ -18298,7 +18323,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="611" spans="1:9">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>34</v>
       </c>
@@ -18327,7 +18352,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="612" spans="1:9">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>18</v>
       </c>
@@ -18356,7 +18381,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="613" spans="1:9">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>49</v>
       </c>
@@ -18385,7 +18410,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="614" spans="1:9">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>7</v>
       </c>
@@ -18414,7 +18439,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="615" spans="1:9">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>32</v>
       </c>
@@ -18443,7 +18468,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="616" spans="1:9">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>46</v>
       </c>
@@ -18472,7 +18497,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="617" spans="1:9">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>7</v>
       </c>
@@ -18501,7 +18526,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="618" spans="1:9">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>44</v>
       </c>
@@ -18530,7 +18555,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="619" spans="1:9">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>16</v>
       </c>
@@ -18559,7 +18584,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="620" spans="1:9">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>34</v>
       </c>
@@ -18588,7 +18613,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="621" spans="1:9">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>35</v>
       </c>
@@ -18617,7 +18642,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="622" spans="1:9">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>19</v>
       </c>
@@ -18646,7 +18671,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="623" spans="1:9">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>39</v>
       </c>
@@ -18675,7 +18700,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="624" spans="1:9">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>50</v>
       </c>
@@ -18704,7 +18729,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="625" spans="1:9">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>37</v>
       </c>
@@ -18733,7 +18758,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="626" spans="1:9">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>46</v>
       </c>
@@ -18762,7 +18787,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="627" spans="1:9">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>14</v>
       </c>
@@ -18791,7 +18816,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="628" spans="1:9">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>12</v>
       </c>
@@ -18820,7 +18845,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="629" spans="1:9">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>2</v>
       </c>
@@ -18849,7 +18874,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="630" spans="1:9">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>4</v>
       </c>
@@ -18878,7 +18903,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="631" spans="1:9">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>41</v>
       </c>
@@ -18907,7 +18932,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="632" spans="1:9">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>25</v>
       </c>
@@ -18936,7 +18961,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="633" spans="1:9">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>13</v>
       </c>
@@ -18965,7 +18990,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="634" spans="1:9">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>1</v>
       </c>
@@ -18994,7 +19019,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="635" spans="1:9">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>29</v>
       </c>
@@ -19023,7 +19048,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="636" spans="1:9">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>40</v>
       </c>
@@ -19052,7 +19077,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="637" spans="1:9">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>32</v>
       </c>
@@ -19081,7 +19106,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="638" spans="1:9">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>22</v>
       </c>
@@ -19110,7 +19135,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="639" spans="1:9">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>40</v>
       </c>
@@ -19139,7 +19164,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="640" spans="1:9">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>19</v>
       </c>
@@ -19168,7 +19193,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="641" spans="1:9">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>16</v>
       </c>
@@ -19197,7 +19222,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="642" spans="1:9">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>24</v>
       </c>
@@ -19226,7 +19251,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="643" spans="1:9">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>10</v>
       </c>
@@ -19255,7 +19280,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="644" spans="1:9">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>44</v>
       </c>
@@ -19284,7 +19309,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="645" spans="1:9">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>26</v>
       </c>
@@ -19313,7 +19338,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="646" spans="1:9">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>9</v>
       </c>
@@ -19342,7 +19367,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="647" spans="1:9">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>23</v>
       </c>
@@ -19371,7 +19396,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="648" spans="1:9">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>48</v>
       </c>
@@ -19400,7 +19425,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="649" spans="1:9">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>5</v>
       </c>
@@ -19429,7 +19454,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="650" spans="1:9">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>28</v>
       </c>
@@ -19458,7 +19483,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="651" spans="1:9">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>26</v>
       </c>
